--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>PRODUCTCD</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>AAA_SS</t>
+  </si>
+  <si>
+    <t>MSRP_2000</t>
+  </si>
+  <si>
+    <t>MSRP_2000_SS_TEST</t>
+  </si>
+  <si>
+    <t>MSRP_VERSION</t>
   </si>
 </sst>
 </file>
@@ -401,22 +410,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="1" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,8 +445,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -453,8 +466,11 @@
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -471,8 +487,11 @@
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>PRODUCTCD</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>AAA_SS</t>
+  </si>
+  <si>
+    <t>SYMBOL_2000_SS_ENTRY_DATE</t>
   </si>
 </sst>
 </file>
@@ -108,16 +111,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -404,7 +402,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,7 +411,7 @@
     <col min="3" max="3" width="13.21875" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -473,12 +471,22 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20150101</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20300102</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3">
-        <v>20150101</v>
+        <v>20000101</v>
       </c>
       <c r="E4" s="3">
         <v>20300102</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>PRODUCTCD</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>MSRP_VERSION</t>
+  </si>
+  <si>
+    <t>SYMBOL_2000_SS_ENTRY_DATE</t>
   </si>
 </sst>
 </file>
@@ -117,7 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -125,10 +128,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -413,20 +412,20 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -470,7 +469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -491,13 +490,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20150101</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20300102</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>PRODUCTCD</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>MSRP_VERSION</t>
-  </si>
-  <si>
-    <t>SYMBOL_2000_SS_ENTRY_DATE</t>
   </si>
 </sst>
 </file>
@@ -120,14 +117,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -409,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,27 +486,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3">
-        <v>20150101</v>
-      </c>
-      <c r="E4" s="3">
-        <v>20300102</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>PRODUCTCD</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>MSRP_2000</t>
-  </si>
-  <si>
-    <t>MSRP_2000_SS_TEST</t>
   </si>
   <si>
     <t>MSRP_VERSION</t>
@@ -408,7 +405,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -483,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gu1xkaz\IdeaProjects\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>PRODUCTCD</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>MSRP_VERSION</t>
+  </si>
+  <si>
+    <t>MSRP_2000_SS</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,10 +483,11 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="3">
-        <v>20150101</v>
+        <v>20150102</v>
       </c>
       <c r="E3" s="3">
         <v>20300102</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>PRODUCTCD</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>MSRP_VERSION</t>
-  </si>
-  <si>
-    <t>MSRP_2000_SS</t>
   </si>
 </sst>
 </file>
@@ -408,7 +405,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>PRODUCTCD</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>UT</t>
-  </si>
-  <si>
-    <t>SYMBOL_2000_SS_TEST</t>
   </si>
   <si>
     <t>SYMBOL_2000</t>
@@ -402,23 +399,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,12 +435,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -453,34 +450,13 @@
         <v>20000101</v>
       </c>
       <c r="E2" s="3">
-        <v>20150101</v>
+        <v>99999999</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3">
-        <v>20150102</v>
-      </c>
-      <c r="E3" s="3">
-        <v>20300102</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/controlTable_UT_SS.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,4 +463,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<WrappedLabelHistory xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
+  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSJhZDU3ZDYxOC03ZWI5LTQ4MzYtOTY1OS05MmUxYzk3ZDViMmIiIG9yaWdpbj0idXNlclNlbGVjdGVkIj48ZWxlbWVudCB1aWQ9IjQ2NDRiNWMwLWM0ZDUtNDdkOS1iZjRkLTBhYjQyYzc0YTk3NiIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjwvc2lzbD48VXNlck5hbWU+RU5UXGdwOGpvaG48L1VzZXJOYW1lPjxEYXRlVGltZT41LzIvMjAxOSAxMDozNzoxNSBQTTwvRGF0ZVRpbWU+PExhYmVsU3RyaW5nPlB1YmxpYzwvTGFiZWxTdHJpbmc+PC9pdGVtPjwvbGFiZWxIaXN0b3J5Pg==</Value>
+</WrappedLabelHistory>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="ad57d618-7eb9-4836-9659-92e1c97d5b2b" origin="userSelected">
+  <element uid="4644b5c0-c4d5-47d9-bf4d-0ab42c74a976" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE7DB00D-FDA8-4B55-815E-479DF635D3DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F7A0334-95E1-4920-A56E-0E4AD0D55C47}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>